--- a/DB/Tablas de aprendizaje de movimientos/Venipede, Whirlipede, Scolipede y Scolipede (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Venipede, Whirlipede, Scolipede y Scolipede (S).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6705" windowHeight="7080" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Venipede" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="Scolipede (S)" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scolipede!$A$2:$A$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Scolipede (S)'!$A$2:$A$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Venipede!$A$2:$A$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Whirlipede!$A$2:$A$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scolipede!$A$2:$A$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Scolipede (S)'!$A$2:$A$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Venipede!$A$2:$A$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Whirlipede!$A$2:$A$22</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Scolipede!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="3">'Scolipede (S)'!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Venipede!#REF!</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
   <si>
     <t>Movimiento</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Golpe bis</t>
   </si>
   <si>
-    <t>Hidropulso</t>
-  </si>
-  <si>
     <t>Bola sombra</t>
   </si>
   <si>
@@ -145,12 +142,24 @@
   </si>
   <si>
     <t>Picotazo veneno</t>
+  </si>
+  <si>
+    <t>Púas tóxicas</t>
+  </si>
+  <si>
+    <t>Rugido de guerra</t>
+  </si>
+  <si>
+    <t>Fertilizante</t>
+  </si>
+  <si>
+    <t>Púas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,19 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -518,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -526,15 +535,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -542,63 +551,71 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -606,7 +623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -614,7 +631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -622,7 +639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -630,46 +647,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -681,19 +687,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -709,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -717,15 +723,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -733,71 +739,79 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -805,7 +819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -813,7 +827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -821,7 +835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -829,46 +843,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -880,19 +883,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -908,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -916,15 +919,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -932,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -940,163 +943,171 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1107,19 +1118,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,15 +1138,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1151,15 +1162,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1167,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1175,139 +1186,155 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
     </row>

--- a/DB/Tablas de aprendizaje de movimientos/Venipede, Whirlipede, Scolipede y Scolipede (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Venipede, Whirlipede, Scolipede y Scolipede (S).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
